--- a/Selenium.xlsx
+++ b/Selenium.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\B93 Selenium\Workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B446EC6-440D-447B-B955-07993E2D5136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E8666F-9A49-4551-A7AE-6699DBCBA03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diff" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
   <si>
     <t>Selenium 3</t>
   </si>
@@ -75,9 +75,6 @@
     <t>all the methods in selenium are overriden</t>
   </si>
   <si>
-    <t>driver.navigate().to(arg);</t>
-  </si>
-  <si>
     <t>SocketException</t>
   </si>
   <si>
@@ -244,6 +241,12 @@
   </si>
   <si>
     <t>//input[1]|//div[2]/input[2]</t>
+  </si>
+  <si>
+    <t>RelativeLocator</t>
+  </si>
+  <si>
+    <t>driver.navigate().to(arg); RelativeLocator</t>
   </si>
 </sst>
 </file>
@@ -569,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,18 +602,26 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>23</v>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -622,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830C4F9B-8F99-4CDD-987C-8FCFA6FC5491}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,15 +687,15 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -710,17 +721,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -732,7 +743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5745B0DF-80BD-4C90-9D3A-E729ADC9B186}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -745,178 +756,178 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
         <v>55</v>
-      </c>
-      <c r="C1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Selenium.xlsx
+++ b/Selenium.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\B93 Selenium\Workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E8666F-9A49-4551-A7AE-6699DBCBA03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC8C928-1002-419B-A856-D8A3852B64A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diff" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
   <si>
     <t>Selenium 3</t>
   </si>
@@ -247,6 +247,12 @@
   </si>
   <si>
     <t>driver.navigate().to(arg); RelativeLocator</t>
+  </si>
+  <si>
+    <t>ElementNotInteractableException</t>
+  </si>
+  <si>
+    <t>UnsupportedOperationException</t>
   </si>
 </sst>
 </file>
@@ -633,7 +639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830C4F9B-8F99-4CDD-987C-8FCFA6FC5491}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -708,10 +714,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED096DE-29D3-4D14-A487-EDC0F8FE8F73}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,6 +738,16 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Selenium.xlsx
+++ b/Selenium.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\B93 Selenium\Workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC8C928-1002-419B-A856-D8A3852B64A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251C9BAD-233D-47F5-BF76-C750CD995415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diff" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
   <si>
     <t>Selenium 3</t>
   </si>
@@ -253,6 +253,15 @@
   </si>
   <si>
     <t>UnsupportedOperationException</t>
+  </si>
+  <si>
+    <t>IOException</t>
+  </si>
+  <si>
+    <t>scrolling using JSE</t>
+  </si>
+  <si>
+    <t>scrolling using JSE &amp; Actions</t>
   </si>
 </sst>
 </file>
@@ -578,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,6 +637,14 @@
       </c>
       <c r="B5" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -714,10 +731,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED096DE-29D3-4D14-A487-EDC0F8FE8F73}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,6 +765,11 @@
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Selenium.xlsx
+++ b/Selenium.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\B93 Selenium\Workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251C9BAD-233D-47F5-BF76-C750CD995415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D1E3BD-00F8-4DAB-9C4B-93EAFD37DDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diff" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
   <si>
     <t>Selenium 3</t>
   </si>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>scrolling using JSE &amp; Actions</t>
+  </si>
+  <si>
+    <t>NoAlertPresentException</t>
   </si>
 </sst>
 </file>
@@ -589,7 +592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -731,10 +734,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED096DE-29D3-4D14-A487-EDC0F8FE8F73}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,6 +773,11 @@
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Selenium.xlsx
+++ b/Selenium.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\B93 Selenium\Workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D1E3BD-00F8-4DAB-9C4B-93EAFD37DDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2555F3C-BF67-46E9-B936-AB7EC7768776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
   <si>
     <t>Selenium 3</t>
   </si>
@@ -265,6 +265,21 @@
   </si>
   <si>
     <t>NoAlertPresentException</t>
+  </si>
+  <si>
+    <t>InvalidArgumentException</t>
+  </si>
+  <si>
+    <t>WebDriverException</t>
+  </si>
+  <si>
+    <t>path is not absolute</t>
+  </si>
+  <si>
+    <t>driver.switchTo().frame(arg);</t>
+  </si>
+  <si>
+    <t>NoSuchFrameException</t>
   </si>
 </sst>
 </file>
@@ -657,19 +672,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830C4F9B-8F99-4CDD-987C-8FCFA6FC5491}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -677,7 +693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -685,7 +701,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -693,7 +709,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -701,25 +717,28 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -734,50 +753,69 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED096DE-29D3-4D14-A487-EDC0F8FE8F73}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Selenium.xlsx
+++ b/Selenium.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\B93 Selenium\Workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2555F3C-BF67-46E9-B936-AB7EC7768776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAC9C6F-3536-4920-8205-4A776C400409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diff" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="86">
   <si>
     <t>Selenium 3</t>
   </si>
@@ -280,6 +280,12 @@
   </si>
   <si>
     <t>NoSuchFrameException</t>
+  </si>
+  <si>
+    <t>NoSuchWindowException</t>
+  </si>
+  <si>
+    <t>driver.switchTo().newWindow(WindowType.TAB)</t>
   </si>
 </sst>
 </file>
@@ -605,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,6 +669,14 @@
       </c>
       <c r="B6" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -753,10 +767,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED096DE-29D3-4D14-A487-EDC0F8FE8F73}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,6 +830,11 @@
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/Selenium.xlsx
+++ b/Selenium.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\B93 Selenium\Workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAC9C6F-3536-4920-8205-4A776C400409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C74FC9-C6B1-4D02-95BA-FDB3F9724657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="90">
   <si>
     <t>Selenium 3</t>
   </si>
@@ -286,6 +286,18 @@
   </si>
   <si>
     <t>driver.switchTo().newWindow(WindowType.TAB)</t>
+  </si>
+  <si>
+    <t>TimeUnit</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>No getter method under timeouts</t>
+  </si>
+  <si>
+    <t>we have getter method under timeouts</t>
   </si>
 </sst>
 </file>
@@ -611,7 +623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -619,7 +631,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -677,6 +689,22 @@
       </c>
       <c r="B7" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/Selenium.xlsx
+++ b/Selenium.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\B93 Selenium\Workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C74FC9-C6B1-4D02-95BA-FDB3F9724657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC330AE5-A9AF-4948-B2BD-B5C96911B7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diff" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="91">
   <si>
     <t>Selenium 3</t>
   </si>
@@ -298,6 +298,9 @@
   </si>
   <si>
     <t>we have getter method under timeouts</t>
+  </si>
+  <si>
+    <t>TimeOutException</t>
   </si>
 </sst>
 </file>
@@ -625,7 +628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -795,10 +798,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED096DE-29D3-4D14-A487-EDC0F8FE8F73}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,6 +866,11 @@
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Selenium.xlsx
+++ b/Selenium.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\B93 Selenium\Workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC330AE5-A9AF-4948-B2BD-B5C96911B7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B186B9B-59CB-437B-B84C-34913845AF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="92">
   <si>
     <t>Selenium 3</t>
   </si>
@@ -60,18 +60,12 @@
     <t>polymorphism</t>
   </si>
   <si>
-    <t>ChromeDriver,FirefoxDriver,EdgeDriver</t>
-  </si>
-  <si>
     <t>new ChromeDriver();</t>
   </si>
   <si>
     <t>Parent: RemoteWebDriver Child: all browser classes</t>
   </si>
   <si>
-    <t>WebDriver JavaScriptExecutor TakesScreenshot</t>
-  </si>
-  <si>
     <t>all the methods in selenium are overriden</t>
   </si>
   <si>
@@ -301,6 +295,15 @@
   </si>
   <si>
     <t>TimeOutException</t>
+  </si>
+  <si>
+    <t>ChromeDriver,FirefoxDriver,EdgeDriver,Actions,Select,WebDriverWait,ExpectedConditions</t>
+  </si>
+  <si>
+    <t>WebDriver JavaScriptExecutor TakesScreenshot Action, WebElement,ExpectedCondition</t>
+  </si>
+  <si>
+    <t>StaleElementReferenceException</t>
   </si>
 </sst>
 </file>
@@ -323,12 +326,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -343,9 +352,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,58 +666,58 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -720,13 +730,13 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -735,7 +745,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -743,7 +753,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -751,7 +761,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -759,13 +769,14 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -774,21 +785,21 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -798,9 +809,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED096DE-29D3-4D14-A487-EDC0F8FE8F73}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -812,65 +823,70 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>23</v>
+      <c r="A3" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -895,178 +911,178 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Selenium.xlsx
+++ b/Selenium.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\B93 Selenium\Workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B186B9B-59CB-437B-B84C-34913845AF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588247BC-B9F3-40E5-AA4C-D96E26F11934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="93">
   <si>
     <t>Selenium 3</t>
   </si>
@@ -304,6 +304,9 @@
   </si>
   <si>
     <t>StaleElementReferenceException</t>
+  </si>
+  <si>
+    <t>MethodMatcherException</t>
   </si>
 </sst>
 </file>
@@ -809,10 +812,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED096DE-29D3-4D14-A487-EDC0F8FE8F73}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,6 +890,11 @@
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Selenium.xlsx
+++ b/Selenium.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\B93 Selenium\Workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588247BC-B9F3-40E5-AA4C-D96E26F11934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373ECF47-6CCD-459D-96BD-898F8C770DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="95">
   <si>
     <t>Selenium 3</t>
   </si>
@@ -307,6 +307,12 @@
   </si>
   <si>
     <t>MethodMatcherException</t>
+  </si>
+  <si>
+    <t>FileNotFoundException</t>
+  </si>
+  <si>
+    <t>EncryptedDocumentException</t>
   </si>
 </sst>
 </file>
@@ -812,10 +818,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED096DE-29D3-4D14-A487-EDC0F8FE8F73}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -895,6 +901,16 @@
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
